--- a/medicine/Soins infirmiers et profession infirmière/Hôpital_de_Josselin/Hôpital_de_Josselin.xlsx
+++ b/medicine/Soins infirmiers et profession infirmière/Hôpital_de_Josselin/Hôpital_de_Josselin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_de_Josselin</t>
+          <t>Hôpital_de_Josselin</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-L'hôpital de Josselin est un hôpital situé à Josselin. Il emploie 235 salariés en 2014[2] et totalise 316 entrées dans le service de soin.
+L'hôpital de Josselin est un hôpital situé à Josselin. Il emploie 235 salariés en 2014 et totalise 316 entrées dans le service de soin.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_de_Josselin</t>
+          <t>Hôpital_de_Josselin</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,11 +524,13 @@
           <t>Soins hospitaliers</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Il existe plusieurs services
 Soins de suite, réadaptation, soins palliatifs
-EHPAD : 231 lits[1]
+EHPAD : 231 lits
 Service de soins infirmiers à domicile
 Centre maternel.</t>
         </is>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_de_Josselin</t>
+          <t>Hôpital_de_Josselin</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,11 +560,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'hôpital de Josselin est fondé en 1728 par Marie de Pontbriand[3], à proximité d'une chapelle préexistante (XVIIe siècle) dédiée à saint Nicolas. Les bâtiments de soin sont construits au XVIIIe siècle[3], auxquels sont adjoints des bâtiments administratifs et des logements durant la deuxième moitié du XIXe siècle[3].
-Travaux
-En 2015, le directeur du centre hospitalier du pays de Ploërmel annonce une relance de la construction de l’hôpital[2]. Le permis de construire est approuvé le 4 décembre 2019[4]. Le coût des travaux est estimé à 25 millions d'euros[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'hôpital de Josselin est fondé en 1728 par Marie de Pontbriand, à proximité d'une chapelle préexistante (XVIIe siècle) dédiée à saint Nicolas. Les bâtiments de soin sont construits au XVIIIe siècle, auxquels sont adjoints des bâtiments administratifs et des logements durant la deuxième moitié du XIXe siècle.
 </t>
         </is>
       </c>
@@ -561,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_de_Josselin</t>
+          <t>Hôpital_de_Josselin</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,13 +590,55 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Travaux</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2015, le directeur du centre hospitalier du pays de Ploërmel annonce une relance de la construction de l’hôpital. Le permis de construire est approuvé le 4 décembre 2019. Le coût des travaux est estimé à 25 millions d'euros.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Hôpital_de_Josselin</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Soins infirmiers et profession infirmière/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/H%C3%B4pital_de_Josselin</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Chapelle Saint-Jacques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Objets classés aux monuments historiques
-La chapelle Saint-Jacques située à côté contient une statue en bois polychrome de Saint Jacques datant du XVIe siècle qui fait l'objet d'une protection depuis 1952 [5]. D'autres objets sont remarquables comme des bras-reliquaires de saint Corentin et de saint Clair[6] ou autres objets liés au culte [7].
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Objets classés aux monuments historiques</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La chapelle Saint-Jacques située à côté contient une statue en bois polychrome de Saint Jacques datant du XVIe siècle qui fait l'objet d'une protection depuis 1952 . D'autres objets sont remarquables comme des bras-reliquaires de saint Corentin et de saint Clair ou autres objets liés au culte .
 </t>
         </is>
       </c>
